--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -10,28 +10,29 @@
     <sheet name="EventTest1" sheetId="1" r:id="rId1"/>
     <sheet name="EventTest2" sheetId="2" r:id="rId2"/>
     <sheet name="EventTest3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>category</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>delayTime</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>waitMovie</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>FadeIn</t>
@@ -44,18 +45,43 @@
   </si>
   <si>
     <t>Bubble</t>
+  </si>
+  <si>
+    <t>FadeIn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ChangeTime</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>CameraZoom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,13 +125,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
@@ -408,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -420,8 +447,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -435,7 +462,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -452,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -472,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -486,13 +513,55 @@
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -582,7 +651,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
@@ -597,7 +666,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,7 +742,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
@@ -681,4 +750,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,12 +144,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,7 +441,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -562,7 +565,7 @@
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -10,14 +10,13 @@
     <sheet name="EventTest1" sheetId="1" r:id="rId1"/>
     <sheet name="EventTest2" sheetId="2" r:id="rId2"/>
     <sheet name="EventTest3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -62,6 +61,9 @@
   </si>
   <si>
     <t>CameraZoom</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
 </sst>
 </file>
@@ -438,18 +440,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -462,8 +467,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -476,8 +484,11 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -491,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -499,13 +510,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -519,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -533,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -547,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -565,7 +576,7 @@
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,BGM,SE"</formula1>
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -575,15 +586,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,8 +607,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -611,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -625,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -639,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -666,15 +680,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +701,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -702,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -716,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -730,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -753,18 +770,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,22 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFFBF8A-17E2-044E-8B6C-D2A8321EB645}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="12540" windowHeight="11820" firstSheet="42" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EventTest1" sheetId="1" r:id="rId1"/>
-    <sheet name="EventTest2" sheetId="2" r:id="rId2"/>
-    <sheet name="EventTest3" sheetId="3" r:id="rId3"/>
+    <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
+    <sheet name="E02_Map2_to_map1" sheetId="2" r:id="rId2"/>
+    <sheet name="E03_Pant_pickup3" sheetId="3" r:id="rId3"/>
+    <sheet name="E04_MiniGame2_clear" sheetId="4" r:id="rId4"/>
+    <sheet name="E05_Map1_to_map2_past" sheetId="5" r:id="rId5"/>
+    <sheet name="E06_Map2_to_map1_past" sheetId="6" r:id="rId6"/>
+    <sheet name="E07_Report2_pickup_past" sheetId="7" r:id="rId7"/>
+    <sheet name="E08_Piece_pickup_past" sheetId="8" r:id="rId8"/>
+    <sheet name="E09_Gate1geme_past" sheetId="9" r:id="rId9"/>
+    <sheet name="E10_Gate1geme_clear_past" sheetId="10" r:id="rId10"/>
+    <sheet name="E11_Gate1geme_error_past" sheetId="11" r:id="rId11"/>
+    <sheet name="E12_Stairs1_up_past" sheetId="12" r:id="rId12"/>
+    <sheet name="E13_Stairs1_down_past" sheetId="13" r:id="rId13"/>
+    <sheet name="E14_Enemy_exit_past" sheetId="14" r:id="rId14"/>
+    <sheet name="E15_Timecapsule_piece_buried_pa" sheetId="15" r:id="rId15"/>
+    <sheet name="E16_Mushroom_plant1_past" sheetId="16" r:id="rId16"/>
+    <sheet name="E17_Mushroom_noplant_past" sheetId="17" r:id="rId17"/>
+    <sheet name="E18_Cardkey_needed" sheetId="18" r:id="rId18"/>
+    <sheet name="E19_Pant_pickup4" sheetId="19" r:id="rId19"/>
+    <sheet name="E20_Timecapsule_piece" sheetId="20" r:id="rId20"/>
+    <sheet name="E21_Pant_pickup5" sheetId="21" r:id="rId21"/>
+    <sheet name="E22_Picture_book_piece_pickup" sheetId="22" r:id="rId22"/>
+    <sheet name="E23_MiniGame2_clear" sheetId="23" r:id="rId23"/>
+    <sheet name="E24_Alone_start_past" sheetId="24" r:id="rId24"/>
+    <sheet name="E25_Gate2game_past" sheetId="25" r:id="rId25"/>
+    <sheet name="E26_Gate2geme_clear_past" sheetId="26" r:id="rId26"/>
+    <sheet name="E27_Gate2geme_error_past" sheetId="27" r:id="rId27"/>
+    <sheet name="E28_Stairs2_up_past" sheetId="28" r:id="rId28"/>
+    <sheet name="E29_Stairs2_down_past" sheetId="29" r:id="rId29"/>
+    <sheet name="E30_Stairs3_up_past" sheetId="30" r:id="rId30"/>
+    <sheet name="E31_Stairs3_down_past" sheetId="31" r:id="rId31"/>
+    <sheet name="E32_Apparatus_on_past" sheetId="32" r:id="rId32"/>
+    <sheet name="E33_report3_pickup" sheetId="33" r:id="rId33"/>
+    <sheet name="E34_Timecapsule_bookmark_buried" sheetId="34" r:id="rId34"/>
+    <sheet name="E35_Mushroom_plant2_past" sheetId="35" r:id="rId35"/>
+    <sheet name="E36_End_past" sheetId="36" r:id="rId36"/>
+    <sheet name="E37_Pant_pickup" sheetId="37" r:id="rId37"/>
+    <sheet name="E38_No_answer" sheetId="38" r:id="rId38"/>
+    <sheet name="E39_Blue_event" sheetId="39" r:id="rId39"/>
+    <sheet name="E40_Orb_fillin" sheetId="40" r:id="rId40"/>
+    <sheet name="E41_Bad_end" sheetId="41" r:id="rId41"/>
+    <sheet name="E42_Time_capsule_bookmark" sheetId="42" r:id="rId42"/>
+    <sheet name="E43_Green_event" sheetId="43" r:id="rId43"/>
+    <sheet name="E44_Orb_fillin_clear" sheetId="44" r:id="rId44"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="15">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -65,12 +107,16 @@
   <si>
     <t>volume</t>
   </si>
+  <si>
+    <t>vcategory	value	delayTime	waitMovie	volume</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +275,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -264,6 +327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,22 +519,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -471,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -488,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -502,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -516,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -530,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -544,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -558,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -575,7 +655,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -584,17 +664,347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A136BA5-3AE9-3F4C-915E-B5CED22ADD19}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F07F804-0C48-D645-8EF2-042D416EF281}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B04BF9-37C5-3342-B295-1AC3C66114DA}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B860FF2-E16C-2744-8A0C-BCD430CCDD17}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE0042A-CF84-B44E-87A1-1305BF9E42F2}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A0F20C-59B9-DE4A-91DE-1F1876051791}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98AEB90-C099-B943-958E-0C80A86A08D8}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0EAFE7-213B-4143-BC1B-954992CC0D23}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0037D7A1-94CF-9B4B-9A26-46DEB27C22CB}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE287050-966E-DD47-853D-B6F2EC3117F9}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +1021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -625,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -639,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -653,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -670,7 +1080,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -678,17 +1088,333 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EAA1B7-FD3B-7542-B8F8-3F2C44592623}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D699EC2E-698D-2546-8AC1-532D2C66F7F5}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C42B22-FE5C-924D-9FBE-CFAFFE79AF77}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10EA805-A2A1-A64F-BF57-4257EAE21561}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E809C27-6F8E-894F-81DB-B9EE41DF9EA6}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79BB532-604A-4C46-959F-696B81BAE06A}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B681E0-9E2E-C844-B2D2-89E805A273AC}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F9F7CD-24F5-5C44-A991-64AAF7C49131}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3983BCD6-9BFE-4F44-BCF5-F0B441B5FE23}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FAA7A5-A4A8-D94D-A06B-89C579D74C1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +1431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -719,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -733,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -747,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -764,10 +1490,704 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8178BE-B7D0-EE4B-8A7F-50390D80E4DE}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB56BF04-38D5-9D46-B528-069CA58E763A}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A2CCC-41D0-0F44-AF1A-3F42D076FD5F}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51BE5E-3DB2-4249-B33D-27AD9F475106}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65EB0AA-9B86-B946-8055-7E5F881B2308}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CF9237-6898-9341-AAB4-7E9E8B0C4F02}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB5B999-A6B6-BA44-AB64-BFFF7AC37B57}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3F4CF4-9189-094B-91A6-38EE3019450C}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E065D6E2-B400-3C4B-8FF2-814671D59D0B}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC5475-2C35-4047-B797-2F4878DEA491}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E34014-39FB-D944-80D5-E3AD67ED8426}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2BFF9C-7897-7347-93F7-091CE742235B}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AE7472-E1DF-5A49-8D2C-ABE30BFF4A47}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B2EA73-1AFA-FD49-9072-3E1051B3237C}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC6CCCB-581B-794A-9B56-476167FB508F}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7033A3EA-119E-D14F-BF32-F3F76E36BB56}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEC1D5E-FF26-E045-A868-201DA27C6E65}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1111C491-5FF5-2A4E-BC56-6E992DE71EFD}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09EE318-6AD6-2A49-9B7D-C28917C8558A}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E6A02A-70D0-CD4B-A51D-35B20FEC9DCE}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A017116E-63BE-3A40-B251-1F5A67EA8437}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0589A60F-45EC-4D24-81B6-E1DA947B4957}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D8C430-25CF-475A-9CAB-784956901B5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="35" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -3550,7 +3550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D8C430-25CF-475A-9CAB-784956901B5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B5FC5B-4D3A-4EE7-BF1F-1179961A7CCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="35" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1908" yWindow="144" windowWidth="21132" windowHeight="12216" firstSheet="31" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,19 @@
     <sheet name="E46_Greenorb_pickup" sheetId="46" r:id="rId46"/>
     <sheet name="E47_Redorb_pickup" sheetId="47" r:id="rId47"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="49">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -143,36 +150,7 @@
     <t>SE</t>
   </si>
   <si>
-    <t>埋め場画像差し替え</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>TextWindow</t>
-  </si>
-  <si>
-    <t>UI吹き出し</t>
-    <rPh sb="2" eb="3">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ビックリマーク吹き出し</t>
@@ -238,16 +216,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>UI「ピースを手に入れた」</t>
-    <rPh sb="7" eb="8">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BGM</t>
   </si>
   <si>
@@ -345,32 +313,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>埋め場差し替え</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UI「キノコのもとを手に入れました」</t>
-    <rPh sb="10" eb="11">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>左側の腐木の上にビックリマークの吹き出し</t>
     <rPh sb="0" eb="2">
       <t>ヒダリガワ</t>
@@ -393,13 +335,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>UI「キノコのもとを設置した」</t>
-    <rPh sb="10" eb="12">
-      <t>セッチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>背景の差し替え</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
@@ -456,16 +391,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>キーカード吹き出しウィンドウ</t>
-    <rPh sb="5" eb="6">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>オーブのパネル中央表示</t>
     <rPh sb="7" eb="9">
       <t>チュウオウ</t>
@@ -476,26 +401,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画像差し替え</t>
-    <rPh sb="0" eb="3">
-      <t>ガゾウサ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>しおり吹き出し</t>
-    <rPh sb="3" eb="4">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -519,6 +424,9 @@
       <t>キ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ChangeSprite</t>
   </si>
 </sst>
 </file>
@@ -932,7 +840,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -979,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1121,6 +1029,200 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{55AD5080-E78F-440F-B2F1-DF1BB764CE7D}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{2BC77B8F-857E-428D-88CC-BC98A999FCDF}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1159,200 +1261,6 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{55AD5080-E78F-440F-B2F1-DF1BB764CE7D}">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{2BC77B8F-857E-428D-88CC-BC98A999FCDF}">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -1370,7 +1278,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1407,6 +1315,142 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A6:A7" xr:uid="{B8955C6E-6D8E-404D-9994-5B4677DF7581}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{552F76D7-F030-4181-92E4-C0DF028B557B}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -1447,89 +1491,33 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{B8955C6E-6D8E-404D-9994-5B4677DF7581}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1537,12 +1525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1566,10 +1554,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1577,82 +1565,8 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0F00-000000000000}">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1772,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1912,8 +1826,20 @@
       </c>
     </row>
     <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1946,26 +1872,26 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{D6F79262-8C11-4334-AA5A-F38434EB784C}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A7" xr:uid="{D6F79262-8C11-4334-AA5A-F38434EB784C}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{407E3987-08D2-47C4-A808-FA515DE5EA63}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2133,7 +2059,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2150,7 +2076,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2164,7 +2090,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2178,10 +2104,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2214,7 +2140,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2280,10 +2206,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2302,18 +2228,27 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2421,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2527,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2583,7 +2518,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2624,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2729,7 +2664,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2770,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2823,7 +2758,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2914,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2944,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2956,29 +2891,32 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2986,73 +2924,42 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>3</v>
+      <c r="F5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
+      <c r="F6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{31137C2C-9AB5-4DB8-995A-9C0846468F8C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{31137C2C-9AB5-4DB8-995A-9C0846468F8C}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3117,7 +3024,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -3158,35 +3065,35 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3198,14 +3105,17 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A4" xr:uid="{B29D1879-7161-42BE-B58C-53E59AFDCC16}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{104DFED0-07D4-44B2-AD34-96896A66CFF6}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3217,7 +3127,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -3241,19 +3151,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3286,29 +3193,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3320,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3417,12 +3324,12 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="F6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3403,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -3520,7 +3427,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3532,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3550,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -3603,7 +3510,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3620,18 +3527,18 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3645,7 +3552,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3659,7 +3566,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3671,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3704,16 +3611,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3809,13 +3716,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3853,13 +3760,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3903,15 +3810,15 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3928,7 +3835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3942,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3959,18 +3866,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3984,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3998,28 +3908,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A7" xr:uid="{34347ED0-9C9F-457A-9F36-7CC5209E23EF}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{CAD3D6A3-6816-4CFD-BB26-908A7CAE0D3D}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4069,7 +3979,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -4100,7 +4010,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4114,7 +4024,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4137,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B5FC5B-4D3A-4EE7-BF1F-1179961A7CCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C20671-4EAF-4A78-B7D9-FAA4F7146312}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1908" yWindow="144" windowWidth="21132" windowHeight="12216" firstSheet="31" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="144" windowWidth="21132" windowHeight="12216" firstSheet="33" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -2851,7 +2851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3126,7 +3126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="150" windowWidth="21135" windowHeight="12210" firstSheet="21" activeTab="22"/>
+    <workbookView xWindow="1890" yWindow="150" windowWidth="21135" windowHeight="12210" firstSheet="21" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2071,7 +2071,7 @@
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2082,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2221,7 +2221,7 @@
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A2:A3 A5:A7">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="150" windowWidth="21135" windowHeight="12210" firstSheet="21" activeTab="21"/>
+    <workbookView xWindow="1890" yWindow="150" windowWidth="21135" windowHeight="12210" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="53">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3868,7 +3868,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3908,7 +3908,7 @@
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4346,15 +4346,15 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4387,25 +4387,40 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4783,10 +4798,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4822,11 +4837,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666D97F7-C01F-4ED3-AC34-D75E883B94E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="150" windowWidth="21135" windowHeight="12210" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -56,18 +57,11 @@
     <sheet name="E47_Redorb_pickup" sheetId="47" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="55">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -464,24 +458,30 @@
   <si>
     <t>BGM</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SetMushRoomNoMoto</t>
+  </si>
+  <si>
+    <t>SetPiece</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -489,14 +489,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -537,8 +537,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - 輔色1" xfId="1" builtinId="31"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -554,7 +554,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -629,6 +629,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -664,6 +681,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -839,14 +873,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
@@ -854,7 +888,7 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -885,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -899,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -916,10 +950,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -929,16 +963,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,7 +989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -972,8 +1006,8 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{963ED8A7-1B62-41E1-A2A4-682D9CAE8EB2}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -981,16 +1015,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1027,7 +1061,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1036,16 +1070,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1090,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1107,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1158,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1133,16 +1167,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1173,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1187,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1204,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1255,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1230,16 +1264,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1270,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1298,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1349,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1324,16 +1358,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1364,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1378,98 +1412,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A2:A3 A5">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A4" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{F8FB807F-6B9F-4A46-9328-D4E09ED2706C}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1477,16 +1528,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1503,67 +1554,84 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{E17C2637-5F65-47AE-B609-E66D5D7743D7}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,16 +1639,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1597,7 +1665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1685,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1626,16 +1694,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1652,12 +1720,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1665,32 +1733,15 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,16 +1749,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1724,12 +1775,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1741,7 +1792,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1750,16 +1801,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1790,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1804,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1821,7 +1872,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,16 +1881,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1870,43 +1921,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1914,11 +1968,8 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1932,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1963,10 +2014,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8 A2 A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8 A2 A3" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-1300-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1975,16 +2026,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2001,12 +2052,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2018,7 +2069,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2027,16 +2078,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2070,7 +2121,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2079,16 +2130,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2119,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2153,57 +2207,57 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2220,7 +2274,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A2:A3 A5:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A8:A9 A5:A6" xr:uid="{00000000-0002-0000-1600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2230,16 +2284,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2256,7 +2310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2270,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2284,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2298,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2306,7 +2360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2314,7 +2368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2328,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2342,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2362,7 +2416,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A7 A8:A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A7 A8:A9" xr:uid="{00000000-0002-0000-1700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2371,16 +2425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2411,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2428,10 +2482,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-1800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1800-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2440,16 +2494,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2466,42 +2520,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2538,7 +2573,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2547,16 +2582,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2587,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2601,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2618,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2635,7 +2670,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2644,16 +2679,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +2705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2684,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2698,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2712,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2729,7 +2764,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2738,16 +2773,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2764,12 +2799,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2781,7 +2816,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2790,16 +2825,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2830,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2844,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2858,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2875,7 +2910,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2884,16 +2919,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +2945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2924,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2938,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2952,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2969,7 +3004,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2978,16 +3013,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3004,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +3059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3041,7 +3076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3058,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3089,7 +3124,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-1F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3098,16 +3133,16 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3124,7 +3159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3141,7 +3176,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3150,16 +3185,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3176,7 +3211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3190,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -3204,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3221,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3238,7 +3273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3255,44 +3290,58 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="b">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 A9" xr:uid="{00000000-0002-0000-2100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2100-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A7" xr:uid="{00000000-0002-0000-2100-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3301,16 +3350,19 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3327,49 +3379,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3383,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3394,7 +3446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -3405,7 +3457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3422,28 +3474,45 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="b">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A2:A3 A5">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A3:A5" xr:uid="{00000000-0002-0000-2200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{00000000-0002-0000-2200-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D76490BF-A06E-4009-A411-ECF996526336}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3451,16 +3520,16 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3477,7 +3546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3491,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3505,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3522,7 +3591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="G6" t="s">
         <v>44</v>
       </c>
@@ -3530,7 +3599,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-2300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3539,16 +3608,16 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3565,7 +3634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3585,7 +3654,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3594,16 +3663,16 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3640,7 +3709,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3649,16 +3718,16 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3675,7 +3744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3689,46 +3758,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3737,49 +3806,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
       <c r="B9">
         <v>0</v>
       </c>
@@ -3789,25 +3858,25 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3821,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3835,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3852,10 +3921,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13 A8:A9 A2 A5:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13 A7:A8 A2 A4:A5" xr:uid="{00000000-0002-0000-2600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{00000000-0002-0000-2600-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3864,16 +3933,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3907,7 +3976,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3917,16 +3986,16 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3943,7 +4012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -3961,16 +4030,16 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3987,46 +4056,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4043,11 +4112,11 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5" xr:uid="{00000000-0002-0000-2800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{64EE81A2-33D1-4D09-9A07-3680D93C2788}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4055,16 +4124,16 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4081,7 +4150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4095,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4112,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4129,53 +4198,70 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A7">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A6:A8" xr:uid="{00000000-0002-0000-2900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{11EA468D-81FE-41A0-96AB-28383F1E82B2}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4183,16 +4269,16 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:G28"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4209,7 +4295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4223,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -4243,80 +4329,80 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4333,10 +4419,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A5:A7 A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A4:A6 A2" xr:uid="{00000000-0002-0000-2A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2A00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4345,16 +4431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4371,7 +4457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4403,7 +4489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="I3" t="s">
         <v>5</v>
       </c>
@@ -4420,7 +4506,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3" xr:uid="{00000000-0002-0000-2B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4429,16 +4515,16 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4455,7 +4541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4472,7 +4558,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4481,16 +4567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4507,7 +4593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4524,7 +4610,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4533,16 +4619,16 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4559,7 +4645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4576,7 +4662,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4585,16 +4671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4611,7 +4697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4625,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4639,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4656,7 +4742,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4665,16 +4751,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4691,7 +4777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4705,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4719,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4736,7 +4822,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4745,16 +4831,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4771,7 +4857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4785,11 +4871,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{F573ABB4-56F4-4169-A5BD-42324E084D83}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4797,16 +4900,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4823,7 +4926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4837,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -4854,7 +4957,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4863,16 +4966,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4889,7 +4992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4906,7 +5009,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666D97F7-C01F-4ED3-AC34-D75E883B94E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76443E-7E97-4ED7-AFFE-13F0338D6F98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -4834,7 +4834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -4903,7 +4903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76443E-7E97-4ED7-AFFE-13F0338D6F98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="150" windowWidth="21135" windowHeight="12210"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -55,19 +56,12 @@
     <sheet name="E46_Greenorb_pickup" sheetId="46" r:id="rId46"/>
     <sheet name="E47_Redorb_pickup" sheetId="47" r:id="rId47"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="55">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -120,16 +114,6 @@
   </si>
   <si>
     <t>Minigame1</t>
-  </si>
-  <si>
-    <t>扉が開く</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>#</t>
@@ -215,9 +199,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BGM</t>
-  </si>
-  <si>
     <t>ChangeColor</t>
   </si>
   <si>
@@ -425,25 +406,82 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ChangeSprite</t>
+    <t>BGM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>StandFlag</t>
+  </si>
+  <si>
+    <t>埋め場差し替え</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像差し替え</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像差し替え</t>
+    <rPh sb="0" eb="3">
+      <t>ガゾウサ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SetMushRoomNoMoto</t>
+  </si>
+  <si>
+    <t>SetPiece</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -451,14 +489,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -558,7 +596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,9 +629,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,6 +681,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,14 +873,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
@@ -816,7 +888,7 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -833,26 +905,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -861,15 +933,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -878,11 +950,11 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -891,16 +963,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -917,34 +989,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{963ED8A7-1B62-41E1-A2A4-682D9CAE8EB2}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -974,14 +1054,14 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -990,16 +1070,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1030,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1044,9 +1124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1061,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1158,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1087,16 +1167,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1127,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1141,9 +1221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1158,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1255,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1184,16 +1264,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1238,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1252,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1349,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1278,16 +1358,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1318,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1332,9 +1412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1349,64 +1429,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A6:A7">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A4" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{F8FB807F-6B9F-4A46-9328-D4E09ED2706C}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1414,16 +1528,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1454,36 +1568,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{E17C2637-5F65-47AE-B609-E66D5D7743D7}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1491,16 +1639,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +1665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1530,14 +1678,14 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
+      <c r="G2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1546,16 +1694,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1585,14 +1733,14 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>25</v>
+      <c r="G2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1601,16 +1749,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1627,12 +1775,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1644,7 +1792,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1653,17 +1801,294 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8 A2 A3" xr:uid="{00000000-0002-0000-1300-000000000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-1300-000001000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1400-000000000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1679,53 +2104,178 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1500-000000000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A8:A9 A5:A6" xr:uid="{00000000-0002-0000-1600-000000000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1733,17 +2283,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +2310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1774,453 +2324,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A7">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6 A8">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A6 A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A7 A8:A9" xr:uid="{00000000-0002-0000-1700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2229,16 +2425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2255,25 +2451,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-1800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1800-000001000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2281,16 +2494,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2305,20 +2518,6 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2328,16 +2527,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2367,14 +2566,14 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
+      <c r="G2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2383,16 +2582,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2423,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2437,9 +2636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2454,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2471,7 +2670,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2480,16 +2679,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2520,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2534,9 +2733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2548,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2565,7 +2764,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2574,16 +2773,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2600,12 +2799,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2617,7 +2816,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2626,16 +2825,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2666,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2680,9 +2879,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2694,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2711,7 +2910,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2720,16 +2919,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2746,7 +2945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2760,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2774,9 +2973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2788,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2805,7 +3004,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2814,16 +3013,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2856,13 +3055,13 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2877,9 +3076,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -2894,20 +3093,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2918,14 +3117,14 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>36</v>
+      <c r="G6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-1F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2934,16 +3133,16 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +3159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2977,7 +3176,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2986,16 +3185,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3012,76 +3211,138 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A4">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 A9" xr:uid="{00000000-0002-0000-2100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2100-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A7" xr:uid="{00000000-0002-0000-2100-000002000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3089,16 +3350,19 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3115,106 +3379,140 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>44</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="b">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8 A2:A4">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A3:A5" xr:uid="{00000000-0002-0000-2200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{00000000-0002-0000-2200-000001000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D76490BF-A06E-4009-A411-ECF996526336}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3222,16 +3520,16 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3248,7 +3546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3276,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3289,19 +3587,19 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F6" t="s">
-        <v>46</v>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="G6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-2300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3310,16 +3608,16 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3336,7 +3634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3356,7 +3654,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3365,16 +3663,16 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3391,9 +3689,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3411,7 +3709,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3420,16 +3718,16 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3446,7 +3744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3460,140 +3758,174 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A11 A2:A4 A6:A7">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13 A7:A8 A2 A4:A5" xr:uid="{00000000-0002-0000-2600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{00000000-0002-0000-2600-000001000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3601,16 +3933,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3627,7 +3959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3644,8 +3976,8 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3654,16 +3986,16 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3680,15 +4012,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3698,16 +4030,16 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3724,18 +4056,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3749,25 +4081,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A4">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5" xr:uid="{00000000-0002-0000-2800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{64EE81A2-33D1-4D09-9A07-3680D93C2788}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3775,16 +4124,16 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3801,7 +4150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3815,87 +4164,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A6:A8" xr:uid="{00000000-0002-0000-2900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{11EA468D-81FE-41A0-96AB-28383F1E82B2}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3903,16 +4269,16 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3929,7 +4295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3943,9 +4309,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3959,13 +4325,16 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3974,67 +4343,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6 A8">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A4:A6 A2" xr:uid="{00000000-0002-0000-2A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2A00-000001000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4042,16 +4431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4068,7 +4457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4084,25 +4473,40 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3" xr:uid="{00000000-0002-0000-2B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4111,16 +4515,16 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4137,7 +4541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4154,7 +4558,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4163,16 +4567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4189,7 +4593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4206,7 +4610,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4215,16 +4619,16 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4241,7 +4645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4258,7 +4662,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4267,16 +4671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4293,7 +4697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4307,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4321,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4338,7 +4742,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4347,16 +4751,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4373,7 +4777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4387,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4401,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4418,7 +4822,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4427,16 +4831,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4453,7 +4857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4467,11 +4871,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{F573ABB4-56F4-4169-A5BD-42324E084D83}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4479,16 +4900,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4516,14 +4937,28 @@
         <v>0</v>
       </c>
       <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4531,16 +4966,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4574,7 +5009,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76443E-7E97-4ED7-AFFE-13F0338D6F98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ADC846-4229-42F1-B115-9081C9FF1FB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -1361,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -4903,7 +4903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ADC846-4229-42F1-B115-9081C9FF1FB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5966BD0D-F8E5-47CA-ADED-CBA33B8F6317}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="56">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -463,7 +463,11 @@
     <t>SetMushRoomNoMoto</t>
   </si>
   <si>
-    <t>SetPiece</t>
+    <t>SETPIECE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ChangeSprite</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1366,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1431,10 +1435,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1448,16 +1452,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1519,11 +1526,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{F8FB807F-6B9F-4A46-9328-D4E09ED2706C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{F8FB807F-6B9F-4A46-9328-D4E09ED2706C}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5966BD0D-F8E5-47CA-ADED-CBA33B8F6317}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBE8AB4-8845-472B-85F9-FED484C0C2CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="34" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -57,11 +57,12 @@
     <sheet name="E47_Redorb_pickup" sheetId="47" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="56">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -186,19 +187,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画像差し替え</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ChangeColor</t>
   </si>
   <si>
@@ -433,7 +421,37 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画像差し替え</t>
+    <t>BGM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SetMushRoomNoMoto</t>
+  </si>
+  <si>
+    <t>SETPIECE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ChangeSprite</t>
+  </si>
+  <si>
+    <t>SET BOOKMARK</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウエフダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SET PIECE解除？</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
     </rPh>
@@ -446,7 +464,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画像差し替え</t>
+    <t>SET BOOKMARK解除？</t>
     <rPh sb="0" eb="3">
       <t>ガゾウサ</t>
     </rPh>
@@ -454,20 +472,6 @@
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SetMushRoomNoMoto</t>
-  </si>
-  <si>
-    <t>SETPIECE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ChangeSprite</t>
   </si>
 </sst>
 </file>
@@ -995,7 +999,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1363,13 +1367,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
@@ -1435,10 +1442,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1447,15 +1454,15 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1464,32 +1471,35 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1497,10 +1507,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1511,22 +1521,36 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A4" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{F8FB807F-6B9F-4A46-9328-D4E09ED2706C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{F8FB807F-6B9F-4A46-9328-D4E09ED2706C}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1586,7 +1610,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1600,7 +1624,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1890,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1948,10 +1972,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1960,46 +1984,52 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2007,26 +2037,57 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="b">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8 A2 A3" xr:uid="{00000000-0002-0000-1300-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-1300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-1300-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{B901C13F-4CD8-4EBB-9ED5-2FFB769D3996}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2197,7 +2258,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2212,12 +2273,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2231,7 +2292,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2245,15 +2306,15 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2362,18 +2423,18 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2418,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2522,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2575,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3103,18 +3164,18 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3126,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3194,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -3235,7 +3296,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3266,10 +3327,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3278,15 +3339,15 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3295,65 +3356,103 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="b">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 A9" xr:uid="{00000000-0002-0000-2100-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11 A4" xr:uid="{00000000-0002-0000-2100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{00000000-0002-0000-2100-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A7" xr:uid="{00000000-0002-0000-2100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A9" xr:uid="{00000000-0002-0000-2100-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A6" xr:uid="{FD187722-214D-498B-BD55-99E6C6F3CC8B}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3389,7 +3488,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3445,29 +3544,29 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3479,12 +3578,12 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3596,12 +3695,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3768,7 +3867,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -3783,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3816,18 +3915,18 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3841,7 +3940,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3855,7 +3954,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3872,7 +3971,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3997,7 +4096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4022,13 +4121,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4066,13 +4165,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4091,7 +4190,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4133,10 +4232,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -4191,10 +4290,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4203,43 +4302,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4250,26 +4355,57 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A6:A8" xr:uid="{00000000-0002-0000-2900-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3" xr:uid="{00000000-0002-0000-2900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{11EA468D-81FE-41A0-96AB-28383F1E82B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{11EA468D-81FE-41A0-96AB-28383F1E82B2}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{5DB48B78-0D72-4C64-A4E5-A1AF56CFB074}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4319,7 +4455,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -4334,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4353,7 +4489,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4367,7 +4503,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4381,7 +4517,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4393,12 +4529,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4881,7 +5017,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4950,7 +5086,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBE8AB4-8845-472B-85F9-FED484C0C2CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="34" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="150" windowWidth="21150" windowHeight="12210" tabRatio="795" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -57,12 +56,11 @@
     <sheet name="E47_Redorb_pickup" sheetId="47" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="57">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -472,24 +470,27 @@
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TimeCapsule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -497,14 +498,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -545,8 +546,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - 輔色1" xfId="1" builtinId="31"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -562,7 +563,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -637,23 +638,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -689,23 +673,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -881,14 +848,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
@@ -896,7 +863,7 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -913,7 +880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -927,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -941,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -958,10 +925,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -971,16 +938,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -997,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1014,7 +981,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{963ED8A7-1B62-41E1-A2A4-682D9CAE8EB2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1023,16 +990,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1036,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1078,16 +1045,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1132,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +1133,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1175,16 +1142,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1229,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1263,7 +1230,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1272,16 +1239,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1312,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1324,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1366,19 +1333,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1409,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1440,12 +1407,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1457,7 +1424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1474,7 +1441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1491,7 +1458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1505,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1519,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1533,25 +1500,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4" xr:uid="{00000000-0002-0000-0E00-000000000000}">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{F8FB807F-6B9F-4A46-9328-D4E09ED2706C}">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1560,16 +1522,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1600,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1608,7 +1570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1622,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1636,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1656,13 +1618,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{E17C2637-5F65-47AE-B609-E66D5D7743D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1671,16 +1633,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1717,7 +1679,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1726,16 +1688,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1734,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1781,16 +1743,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1824,7 +1786,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1833,16 +1795,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1873,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1887,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +1866,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1913,16 +1875,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1953,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1970,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1987,7 +1949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2004,7 +1966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2021,7 +1983,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2035,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2063,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2080,13 +2042,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3" xr:uid="{00000000-0002-0000-1300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-1300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{B901C13F-4CD8-4EBB-9ED5-2FFB769D3996}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2095,16 +2057,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2138,7 +2100,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2147,16 +2109,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2190,7 +2152,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2199,19 +2161,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2242,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2256,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2276,7 +2238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2290,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2304,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2312,7 +2274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2326,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2343,7 +2305,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A8:A9 A5:A6" xr:uid="{00000000-0002-0000-1600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A8:A9 A5:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2353,16 +2315,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2393,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2407,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2429,7 +2391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2437,7 +2399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2451,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2485,7 +2447,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A7 A8:A9" xr:uid="{00000000-0002-0000-1700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A7 A8:A9">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2494,16 +2456,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2534,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2551,10 +2513,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-1800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2563,16 +2525,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2596,16 +2558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2642,7 +2604,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2651,16 +2613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2691,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2722,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2739,7 +2701,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2748,16 +2710,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2774,7 +2736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2788,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2802,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2816,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2833,7 +2795,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2842,16 +2804,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2885,7 +2847,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2894,16 +2856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2920,7 +2882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2934,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2948,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2962,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2979,7 +2941,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2988,16 +2950,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3014,7 +2976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3028,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3042,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3056,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3073,7 +3035,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3082,16 +3044,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3108,7 +3070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3128,7 +3090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3145,7 +3107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3162,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3173,7 +3135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3193,7 +3155,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-1F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3202,16 +3164,16 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3228,7 +3190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3245,7 +3207,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3254,16 +3216,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3280,7 +3242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3294,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3308,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3325,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3342,7 +3304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -3359,7 +3321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3376,7 +3338,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3393,7 +3355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3407,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3421,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3438,16 +3400,16 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11 A4" xr:uid="{00000000-0002-0000-2100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11 A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{00000000-0002-0000-2100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A9" xr:uid="{00000000-0002-0000-2100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A9">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A6" xr:uid="{FD187722-214D-498B-BD55-99E6C6F3CC8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3457,19 +3419,19 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3486,7 +3448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3500,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3514,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3528,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3542,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3553,7 +3515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3564,7 +3526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3581,7 +3543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3595,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3612,13 +3574,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A3:A5" xr:uid="{00000000-0002-0000-2200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A3:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{00000000-0002-0000-2200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D76490BF-A06E-4009-A411-ECF996526336}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3627,16 +3589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3667,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3681,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3698,7 +3660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
         <v>43</v>
       </c>
@@ -3706,7 +3668,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-2300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3715,16 +3677,16 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3741,7 +3703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3761,7 +3723,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3770,16 +3732,16 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3796,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3816,7 +3778,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3825,16 +3787,16 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3851,7 +3813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3865,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -3885,7 +3847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3899,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3913,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3924,7 +3886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3938,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3952,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -3969,7 +3931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3983,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3997,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4011,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4028,10 +3990,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13 A7:A8 A2 A4:A5" xr:uid="{00000000-0002-0000-2600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13 A7:A8 A2 A4:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{00000000-0002-0000-2600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4040,16 +4002,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4066,7 +4028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4083,7 +4045,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4093,16 +4055,16 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4119,7 +4081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -4137,16 +4099,16 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4163,7 +4125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -4174,7 +4136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4188,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -4202,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4219,10 +4181,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5" xr:uid="{00000000-0002-0000-2800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{64EE81A2-33D1-4D09-9A07-3680D93C2788}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4231,16 +4193,16 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4271,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4288,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -4305,7 +4267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4322,7 +4284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4339,7 +4301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -4353,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4367,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4381,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4398,13 +4360,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3" xr:uid="{00000000-0002-0000-2900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{11EA468D-81FE-41A0-96AB-28383F1E82B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{5DB48B78-0D72-4C64-A4E5-A1AF56CFB074}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4413,16 +4375,16 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4439,7 +4401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4453,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -4473,7 +4435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4487,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4501,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4515,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -4532,7 +4494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -4546,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4563,10 +4525,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A4:A6 A2" xr:uid="{00000000-0002-0000-2A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A4:A6 A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4575,16 +4537,16 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4601,7 +4563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4633,7 +4595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I3" t="s">
         <v>5</v>
       </c>
@@ -4650,7 +4612,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3" xr:uid="{00000000-0002-0000-2B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4659,16 +4621,16 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4685,7 +4647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4702,7 +4664,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4711,16 +4673,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4737,7 +4699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4754,7 +4716,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4763,16 +4725,16 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4789,7 +4751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4806,7 +4768,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4815,16 +4777,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4841,7 +4803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4855,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4869,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4886,7 +4848,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4895,16 +4857,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4921,7 +4883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4935,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4949,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4966,7 +4928,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4975,16 +4937,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5001,7 +4963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5015,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -5032,10 +4994,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{F573ABB4-56F4-4169-A5BD-42324E084D83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5044,16 +5006,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5070,7 +5032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5084,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -5101,7 +5063,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5110,16 +5072,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5136,7 +5098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5153,7 +5115,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="150" windowWidth="21150" windowHeight="12210" tabRatio="795" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="45" yWindow="150" windowWidth="21150" windowHeight="12210" tabRatio="795" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -1336,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1575,7 +1575,7 @@
         <v>50</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="150" windowWidth="21150" windowHeight="12210" tabRatio="795" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="45" yWindow="150" windowWidth="21150" windowHeight="12210" tabRatio="795" firstSheet="21" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,16 @@
     <sheet name="E45_Blueorb_pickup" sheetId="45" r:id="rId45"/>
     <sheet name="E46_Greenorb_pickup" sheetId="46" r:id="rId46"/>
     <sheet name="E47_Redorb_pickup" sheetId="47" r:id="rId47"/>
+    <sheet name="E48_After_TimeCapsule_Tuto" sheetId="48" r:id="rId48"/>
+    <sheet name="E49_After_TimeCapsule_Set_Piece" sheetId="49" r:id="rId49"/>
+    <sheet name="E50_TimeCapsule_Bookmark" sheetId="51" r:id="rId50"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="57">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -426,10 +429,6 @@
     <t>SetMushRoomNoMoto</t>
   </si>
   <si>
-    <t>SETPIECE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ChangeSprite</t>
   </si>
   <si>
@@ -473,6 +472,9 @@
   </si>
   <si>
     <t>TimeCapsule</t>
+  </si>
+  <si>
+    <t>BGM</t>
   </si>
 </sst>
 </file>
@@ -1334,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1345,7 +1347,7 @@
     <col min="1" max="1" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1362,157 +1364,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2 A4:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7 A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1934,7 +1809,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1951,7 +1826,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -1980,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2162,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2209,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2220,47 +2095,44 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -2268,44 +2140,58 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A8:A9 A5:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3289,7 +3175,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -3306,7 +3192,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3335,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -4252,7 +4138,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4269,7 +4155,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -4298,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -4729,7 +4615,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4773,6 +4659,225 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A3">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -4856,6 +4961,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6319A315-758E-41EA-8B3B-DAEE4EDAEA55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="150" windowWidth="21150" windowHeight="12210" tabRatio="795" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -54,13 +55,16 @@
     <sheet name="E45_Blueorb_pickup" sheetId="45" r:id="rId45"/>
     <sheet name="E46_Greenorb_pickup" sheetId="46" r:id="rId46"/>
     <sheet name="E47_Redorb_pickup" sheetId="47" r:id="rId47"/>
+    <sheet name="E48_After_TimeCapsule_Tuto" sheetId="48" r:id="rId48"/>
+    <sheet name="E49_After_TimeCapsule_Set_Piece" sheetId="49" r:id="rId49"/>
+    <sheet name="E50_TimeCapsule_Bookmark" sheetId="50" r:id="rId50"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="58">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -473,12 +477,15 @@
   </si>
   <si>
     <t>TimeCapsule</t>
+  </si>
+  <si>
+    <t>BGM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,6 +645,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -673,6 +697,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -848,22 +889,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -894,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -908,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -925,10 +966,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -938,16 +979,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -964,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -981,7 +1022,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -990,16 +1031,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1077,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1045,16 +1086,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1116,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1174,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1142,16 +1183,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1196,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1213,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1271,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1239,16 +1280,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1279,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1365,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1333,19 +1374,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1362,12 +1403,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1376,143 +1417,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7" xr:uid="{00000000-0002-0000-0E00-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1522,16 +1451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1562,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1570,7 +1499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1584,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1598,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1618,13 +1547,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0F00-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1633,16 +1562,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1679,7 +1608,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1688,16 +1617,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1663,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1743,16 +1672,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1715,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1795,16 +1724,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +1750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1835,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1849,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1866,7 +1795,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1875,16 +1804,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1915,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1932,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1949,7 +1878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1966,7 +1895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1983,7 +1912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1997,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2011,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2025,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2042,13 +1971,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-1300-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-1300-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2057,16 +1986,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2100,7 +2029,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2109,16 +2038,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +2064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2152,7 +2081,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2161,19 +2090,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2190,7 +2119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2204,12 +2133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2218,94 +2147,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A8:A9 A5:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A7" xr:uid="{00000000-0002-0000-1600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2315,16 +2255,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2355,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2369,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2383,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2391,7 +2331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2399,7 +2339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2413,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2427,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2447,7 +2387,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A7 A8:A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A7 A8:A9" xr:uid="{00000000-0002-0000-1700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2456,16 +2396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2496,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2513,10 +2453,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-1800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1800-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2525,16 +2465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2558,16 +2498,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2604,7 +2544,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2613,16 +2553,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2653,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2667,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2684,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +2641,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2710,16 +2650,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2736,7 +2676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2750,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2764,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2778,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2795,7 +2735,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2804,16 +2744,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2830,7 +2770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2847,7 +2787,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2856,16 +2796,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2896,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2910,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2924,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2941,7 +2881,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2950,16 +2890,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2976,7 +2916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2990,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3004,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3018,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3035,7 +2975,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3044,16 +2984,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3070,7 +3010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3090,7 +3030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3107,7 +3047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3124,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3135,7 +3075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3155,7 +3095,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-1F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3164,16 +3104,16 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3207,7 +3147,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3216,16 +3156,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3242,7 +3182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3270,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3287,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3304,7 +3244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -3321,7 +3261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3338,7 +3278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3355,7 +3295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3369,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3383,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3400,16 +3340,16 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11 A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11 A4" xr:uid="{00000000-0002-0000-2100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{00000000-0002-0000-2100-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A9" xr:uid="{00000000-0002-0000-2100-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A6" xr:uid="{00000000-0002-0000-2100-000003000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3419,19 +3359,19 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3448,7 +3388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3462,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3476,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3490,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3504,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3515,7 +3455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3526,7 +3466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3543,7 +3483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3557,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3574,13 +3514,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A3:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A3:A5" xr:uid="{00000000-0002-0000-2200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{00000000-0002-0000-2200-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2200-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3589,16 +3529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3615,7 +3555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3629,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3643,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3660,7 +3600,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>43</v>
       </c>
@@ -3668,7 +3608,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-2300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3677,16 +3617,16 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3703,7 +3643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3723,7 +3663,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3732,16 +3672,16 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3778,7 +3718,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3787,16 +3727,16 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3813,7 +3753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3827,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -3847,7 +3787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3861,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3875,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3886,7 +3826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3900,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3914,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -3931,7 +3871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3945,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3959,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3973,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3990,10 +3930,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13 A7:A8 A2 A4:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13 A7:A8 A2 A4:A5" xr:uid="{00000000-0002-0000-2600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{00000000-0002-0000-2600-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4002,16 +3942,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +3968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4045,7 +3985,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4055,16 +3995,16 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4081,7 +4021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -4099,16 +4039,16 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -4136,7 +4076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4150,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -4164,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4181,10 +4121,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5" xr:uid="{00000000-0002-0000-2800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-2800-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4193,16 +4133,16 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4219,7 +4159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4233,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4250,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -4267,7 +4207,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4284,7 +4224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4301,7 +4241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -4315,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4329,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4343,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4360,13 +4300,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3" xr:uid="{00000000-0002-0000-2900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-2900-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-2900-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4375,16 +4315,16 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4401,7 +4341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4415,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -4435,7 +4375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4449,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4463,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4477,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -4494,7 +4434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -4508,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4525,10 +4465,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A4:A6 A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A4:A6 A2" xr:uid="{00000000-0002-0000-2A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2A00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4537,16 +4477,16 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4563,7 +4503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4595,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>5</v>
       </c>
@@ -4612,7 +4552,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3" xr:uid="{00000000-0002-0000-2B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4621,16 +4561,16 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4647,7 +4587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4664,7 +4604,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4673,16 +4613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4699,7 +4639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4716,7 +4656,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4725,16 +4665,16 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +4691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4768,7 +4708,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4776,17 +4716,242 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7B057D-2871-4E83-89C0-3CD5484C4BE1}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{3576D422-4F03-4AC0-82B1-D70AA434502D}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{3199CADB-541F-46D2-9A21-8BA1084FAA98}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{C8569D46-70A3-4900-AB1C-C5173560B353}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DC66A2-0989-4FEF-9A62-9B13391CB3CD}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{5D9AAAB3-DA36-4A55-8687-C1383667DAED}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A3" xr:uid="{969AB5D7-58EA-461F-9D36-17594D661D11}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{5129AD5F-B8FE-4898-A0B0-972DAE3284F4}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4803,7 +4968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4817,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4831,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4848,7 +5013,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4856,17 +5021,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC49B6-7491-4236-89A3-8E200BC2E895}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{B55F898F-0474-4E22-B978-EDA39D3DF0A6}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4883,7 +5101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4897,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4911,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4928,7 +5146,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4937,16 +5155,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4963,7 +5181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4977,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -4994,10 +5212,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5006,16 +5224,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5032,7 +5250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5046,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -5063,7 +5281,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5072,16 +5290,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5098,7 +5316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5115,7 +5333,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6319A315-758E-41EA-8B3B-DAEE4EDAEA55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1162E899-827D-438A-915B-77A91F3A250F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2094,7 +2094,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -5294,7 +5294,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5324,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1162E899-827D-438A-915B-77A91F3A250F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC77355-0A2C-4FB2-A25E-4859A185FBD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="19" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -1807,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -2093,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4783,7 +4783,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4830,7 +4830,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC77355-0A2C-4FB2-A25E-4859A185FBD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F480743-B706-4BD6-B0B7-41DDA15EE51F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="19" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="58">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1482,7 +1482,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1492,54 +1492,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
@@ -1808,7 +1765,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1880,27 +1837,24 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1909,32 +1863,35 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1942,13 +1899,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1962,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1971,17 +1928,18 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3" xr:uid="{00000000-0002-0000-1300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5 A9 A10" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-1300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-1300-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-1300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{00000000-0002-0000-1300-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1990,7 +1948,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4783,7 +4741,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4903,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F480743-B706-4BD6-B0B7-41DDA15EE51F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D1A4DC-09E8-4934-B3DB-57ADC82362B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="59">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>BGM</t>
+  </si>
+  <si>
+    <t>SpawnEnemy</t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1336,13 +1339,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1350,23 +1353,37 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,SpawnEnemy,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F480743-B706-4BD6-B0B7-41DDA15EE51F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="795" firstSheet="33" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="58">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -485,7 +484,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,23 +644,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -697,23 +679,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -889,22 +854,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -921,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -935,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -949,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -966,10 +931,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -979,16 +944,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1022,7 +987,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1031,16 +996,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1042,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1086,16 +1051,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1157,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1139,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1183,16 +1148,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1223,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1237,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1254,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1236,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1280,16 +1245,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1320,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1348,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1365,7 +1330,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1374,19 +1339,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1417,17 +1382,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G7" t="s">
         <v>47</v>
       </c>
@@ -1435,13 +1400,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7" xr:uid="{00000000-0002-0000-0E00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1451,16 +1416,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1491,12 +1456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
         <v>21</v>
       </c>
@@ -1504,13 +1469,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0F00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1519,16 +1484,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1565,7 +1530,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1574,16 +1539,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1620,7 +1585,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1629,16 +1594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1672,7 +1637,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1681,16 +1646,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1721,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1717,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1761,16 +1726,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1818,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1835,7 +1800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1849,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1866,7 +1831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1883,7 +1848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1897,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1928,13 +1893,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5 A9 A10" xr:uid="{00000000-0002-0000-1300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5 A9 A10">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-1300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{00000000-0002-0000-1300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1944,16 +1909,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1987,7 +1952,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1996,16 +1961,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +1987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2004,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2048,19 +2013,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2105,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2119,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2136,7 +2101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2150,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2164,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2172,7 +2137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2186,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2203,7 +2168,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A7" xr:uid="{00000000-0002-0000-1600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2213,16 +2178,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +2204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2253,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2281,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2289,7 +2254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2297,12 +2262,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2311,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2325,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2345,7 +2310,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A7 A8:A9" xr:uid="{00000000-0002-0000-1700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A7 A8:A9">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2354,16 +2319,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2380,7 +2345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2394,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2411,10 +2376,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-1800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2423,16 +2388,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2456,16 +2421,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2502,7 +2467,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2511,16 +2476,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2551,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2565,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2582,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2599,7 +2564,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2608,16 +2573,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +2599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2648,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2676,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2693,7 +2658,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2702,16 +2667,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2728,7 +2693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2745,7 +2710,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2754,16 +2719,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2780,7 +2745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2794,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2808,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2822,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2839,7 +2804,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2848,16 +2813,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2874,7 +2839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2888,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2902,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2916,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2933,7 +2898,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2942,16 +2907,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2988,7 +2953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3002,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3022,9 +2987,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -3033,15 +3004,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -3053,25 +3024,26 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-1F00-000000000000}">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3088,7 +3060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3105,7 +3077,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3114,16 +3086,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3154,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3168,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3185,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3202,7 +3174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -3219,7 +3191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3236,7 +3208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3253,61 +3225,75 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="b">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11 A4" xr:uid="{00000000-0002-0000-2100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12 A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{00000000-0002-0000-2100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A9" xr:uid="{00000000-0002-0000-2100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A9:A10">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A6" xr:uid="{00000000-0002-0000-2100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3317,19 +3303,19 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3346,7 +3332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3360,125 +3346,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>41</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="b">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A3:A5" xr:uid="{00000000-0002-0000-2200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12 A5:A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{00000000-0002-0000-2200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3487,16 +3473,16 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3513,7 +3499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3527,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3541,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3558,7 +3544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
         <v>43</v>
       </c>
@@ -3566,7 +3552,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-2300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3575,16 +3561,16 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3601,7 +3587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3621,7 +3607,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3630,16 +3616,16 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3656,7 +3642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3676,7 +3662,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3685,16 +3671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3711,7 +3697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3725,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -3745,7 +3731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3759,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3773,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3784,7 +3770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3798,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3812,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -3829,7 +3815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3843,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3857,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3871,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3888,10 +3874,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13 A7:A8 A2 A4:A5" xr:uid="{00000000-0002-0000-2600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13 A7:A8 A2 A4:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{00000000-0002-0000-2600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3900,16 +3886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3926,7 +3912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3943,7 +3929,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3953,16 +3939,16 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3979,7 +3965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -3997,16 +3983,16 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4023,7 +4009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -4034,7 +4020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4048,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -4062,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4079,10 +4065,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5" xr:uid="{00000000-0002-0000-2800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-2800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4091,16 +4077,16 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +4103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4131,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4148,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -4165,7 +4151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4182,7 +4168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4199,7 +4185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -4213,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4227,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4241,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4258,13 +4244,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3" xr:uid="{00000000-0002-0000-2900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-2900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-2900-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4273,16 +4259,16 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4299,7 +4285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4313,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -4333,7 +4319,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4347,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4361,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4375,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -4392,7 +4378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -4406,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4423,10 +4409,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A4:A6 A2" xr:uid="{00000000-0002-0000-2A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A4:A6 A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4435,16 +4421,16 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4461,7 +4447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4493,7 +4479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I3" t="s">
         <v>5</v>
       </c>
@@ -4510,7 +4496,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3" xr:uid="{00000000-0002-0000-2B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4519,16 +4505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4545,7 +4531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4562,7 +4548,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4571,16 +4557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4597,7 +4583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4614,7 +4600,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4623,16 +4609,16 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4649,7 +4635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4666,7 +4652,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4675,19 +4661,19 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7B057D-2871-4E83-89C0-3CD5484C4BE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4704,7 +4690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -4721,13 +4707,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{3576D422-4F03-4AC0-82B1-D70AA434502D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{3199CADB-541F-46D2-9A21-8BA1084FAA98}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{C8569D46-70A3-4900-AB1C-C5173560B353}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4737,19 +4723,19 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DC66A2-0989-4FEF-9A62-9B13391CB3CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4766,7 +4752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4780,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4797,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -4811,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4825,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4839,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -4853,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4867,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4884,13 +4870,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{5D9AAAB3-DA36-4A55-8687-C1383667DAED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A3" xr:uid="{969AB5D7-58EA-461F-9D36-17594D661D11}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{5129AD5F-B8FE-4898-A0B0-972DAE3284F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4900,16 +4886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4926,7 +4912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4940,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4954,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4971,7 +4957,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4980,16 +4966,16 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC49B6-7491-4236-89A3-8E200BC2E895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5006,7 +4992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -5023,7 +5009,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{B55F898F-0474-4E22-B978-EDA39D3DF0A6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5033,16 +5019,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5059,7 +5045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5073,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5087,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5104,7 +5090,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5113,16 +5099,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5139,7 +5125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5153,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -5170,10 +5156,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5182,16 +5168,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5208,7 +5194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5222,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -5239,7 +5225,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5248,16 +5234,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5274,7 +5260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5291,7 +5277,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="795" firstSheet="33" activeTab="33"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="795" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="59">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>BGM</t>
+  </si>
+  <si>
+    <t>SpawnEnemy</t>
   </si>
 </sst>
 </file>
@@ -1246,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1290,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1301,13 +1304,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1315,26 +1318,44 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,SpawnEnemy,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3089,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="795" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="795" firstSheet="34" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="58">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -138,16 +138,6 @@
     <t>TextWindow</t>
   </si>
   <si>
-    <t>ビックリマーク吹き出し</t>
-    <rPh sb="7" eb="8">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>UI「キノコのもとを設置」</t>
     <rPh sb="10" eb="12">
       <t>セッチ</t>
@@ -350,16 +340,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>キャラアニメーションの差し替え</t>
-    <rPh sb="11" eb="12">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>オーブのパネル中央表示</t>
     <rPh sb="7" eb="9">
       <t>チュウオウ</t>
@@ -465,23 +445,20 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>SET BOOKMARK解除？</t>
-    <rPh sb="0" eb="3">
-      <t>ガゾウサ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
+    <t>TimeCapsule</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>SpawnEnemy</t>
+  </si>
+  <si>
+    <t>SetOrb</t>
+  </si>
+  <si>
+    <t>FadeIn</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TimeCapsule</t>
-  </si>
-  <si>
-    <t>BGM</t>
-  </si>
-  <si>
-    <t>SpawnEnemy</t>
   </si>
 </sst>
 </file>
@@ -975,7 +952,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1251,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1304,7 +1281,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1405,17 +1382,17 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1479,12 +1456,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1783,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1818,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1837,7 +1814,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1849,12 +1826,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1866,12 +1843,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2038,7 +2015,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2099,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2107,7 +2084,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2119,12 +2096,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2138,7 +2115,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2152,15 +2129,15 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2269,18 +2246,18 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2325,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2321,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2368,7 +2345,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2388,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -2482,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +2909,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2971,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -3010,7 +2987,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -3022,12 +2999,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3039,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +3126,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3180,7 +3157,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -3192,12 +3169,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3209,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -3226,12 +3203,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3243,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -3262,7 +3239,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3355,7 +3332,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3411,29 +3388,29 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3445,12 +3422,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3495,10 +3472,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3539,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3550,31 +3527,45 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G6" t="s">
-        <v>43</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3693,10 +3684,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3734,7 +3725,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -3749,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3777,23 +3768,26 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3807,38 +3801,35 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3847,58 +3838,30 @@
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13 A7:A8 A2 A4:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A11 A7 A2:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3964,7 +3927,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3988,17 +3951,28 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4007,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4032,24 +4006,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -4057,13 +4037,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -4071,25 +4051,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5 A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4099,10 +4079,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4126,7 +4106,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4146,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -4157,7 +4137,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4169,12 +4149,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -4186,32 +4166,29 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4236,39 +4213,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A10 A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A7:A9">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
@@ -4322,7 +4285,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -4337,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -4356,7 +4319,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4370,7 +4333,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4384,7 +4347,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4396,12 +4359,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4713,7 +4676,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4806,7 +4769,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -4820,7 +4783,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -4848,7 +4811,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5015,7 +4978,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5162,7 +5125,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5231,7 +5194,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="795" firstSheet="34" activeTab="40"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="795" firstSheet="23" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="56">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -190,29 +190,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フラン立ち絵差し替え</t>
-    <rPh sb="3" eb="4">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>マップ１と２の行き来をできなくする</t>
-    <rPh sb="7" eb="10">
-      <t>イキキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -952,7 +929,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1281,7 +1258,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1382,17 +1359,17 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1783,7 +1760,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1795,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1814,7 +1791,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1826,12 +1803,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1843,12 +1820,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2084,7 +2061,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2096,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -2115,7 +2092,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2129,7 +2106,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -2137,7 +2114,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2177,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2221,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2232,43 +2209,55 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2276,43 +2265,30 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 A7 A8:A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8 A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2345,7 +2321,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2459,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2987,7 +2963,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -2999,12 +2975,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3016,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3102,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3157,7 +3133,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -3169,12 +3145,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -3186,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -3203,12 +3179,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3220,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -3239,7 +3215,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3332,7 +3308,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3388,29 +3364,29 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3422,12 +3398,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3527,7 +3503,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3553,12 +3529,12 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3725,7 +3701,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -3740,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3801,7 +3777,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3951,7 +3927,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3963,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3981,7 +3957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -4018,12 +3994,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4106,7 +4082,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4137,7 +4113,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -4149,12 +4125,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -4166,12 +4142,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4285,7 +4261,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -4300,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -4347,7 +4323,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4364,7 +4340,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4676,7 +4652,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4769,7 +4745,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -4783,7 +4759,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -4811,7 +4787,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4978,7 +4954,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5125,7 +5101,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5194,7 +5170,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D56464E-C719-4D03-BB1C-D9CB25CDCE07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="795" firstSheet="23" activeTab="23"/>
+    <workbookView xWindow="-4212" yWindow="3072" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="48" activeTab="49" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="46">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -116,10 +117,6 @@
   </si>
   <si>
     <t>Minigame1</t>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>赤色のにフェードアウトなのでプログラマーさんに相談</t>
@@ -184,35 +181,12 @@
     <t>DropItem</t>
   </si>
   <si>
-    <t>ビックリマークの吹き出し</t>
-    <rPh sb="8" eb="9">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>UI「しおりを手に入れた」</t>
     <rPh sb="7" eb="8">
       <t>テ</t>
     </rPh>
     <rPh sb="9" eb="10">
       <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>赤色のフェードアウト相談案件</t>
-    <rPh sb="0" eb="2">
-      <t>アカイロ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>アンケン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -249,64 +223,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>左側の腐木の上にビックリマークの吹き出し</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>背景の差し替え</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>敵出現</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>装置にビックリマークの吹き出し</t>
-    <rPh sb="0" eb="2">
-      <t>ソウチ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ペローに切り替え</t>
     <rPh sb="4" eb="5">
       <t>キ</t>
@@ -327,15 +243,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>DropItem</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Fキーの機能を止める</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -375,10 +283,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BGM</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -391,35 +295,6 @@
   </si>
   <si>
     <t>ChangeSprite</t>
-  </si>
-  <si>
-    <t>SET BOOKMARK</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウエフダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SET PIECE解除？</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>TimeCapsule</t>
@@ -437,23 +312,34 @@
     <t>FadeIn</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>破棄</t>
+    <rPh sb="0" eb="2">
+      <t>アカイロソウダンアンケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フランのボイス（未追加）</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -461,14 +347,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -509,8 +395,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - 輔色1" xfId="1" builtinId="31"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -526,7 +412,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -601,6 +487,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -636,6 +539,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,14 +731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
@@ -826,7 +746,7 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -843,7 +763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -857,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -871,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -888,10 +808,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -901,16 +821,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -927,9 +847,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -944,7 +864,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -953,16 +873,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -979,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -993,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1008,16 +928,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1062,9 +982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1079,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1016,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1105,16 +1025,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1145,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1159,9 +1079,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1176,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1113,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1202,16 +1122,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1242,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1256,9 +1176,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1270,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1292,19 +1212,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,SpawnEnemy,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1314,19 +1234,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1357,31 +1277,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="G5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="G6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="G7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{5C5065CA-F4BA-4E90-B696-70F325F2EE6E}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7" xr:uid="{0CF03394-E72B-48EA-8173-05275D39D29C}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1391,16 +1311,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1431,26 +1351,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0F00-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1459,16 +1379,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1499,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1514,16 +1434,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1554,13 +1474,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1569,16 +1489,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1532,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1621,16 +1541,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1675,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1692,7 +1612,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1701,16 +1621,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1741,15 +1661,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1758,24 +1678,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1789,9 +1709,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1803,15 +1723,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1819,62 +1739,45 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5 A9 A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5 A8 A9" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-1300-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{00000000-0002-0000-1300-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1884,16 +1787,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1910,7 +1813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1927,7 +1830,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1936,16 +1839,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1979,7 +1882,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1988,19 +1891,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +1920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2031,12 +1934,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2045,9 +1948,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2056,94 +1959,72 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{00000000-0002-0000-1600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2153,16 +2034,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2193,12 +2074,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2207,102 +2088,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8 A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{00000000-0002-0000-1700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2319,9 +2186,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2333,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2350,10 +2217,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-1800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1800-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2362,16 +2229,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2386,25 +2253,44 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{B08725A8-DB97-4F2A-B98E-FEDBDEEE4217}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2435,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2450,16 +2336,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2476,7 +2362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2490,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2498,15 +2384,15 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2521,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2538,7 +2424,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2547,16 +2433,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2587,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2601,13 +2487,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
@@ -2615,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2632,7 +2521,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2641,16 +2530,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2684,7 +2573,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2693,16 +2582,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2741,19 +2630,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
@@ -2761,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2778,7 +2670,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2787,16 +2679,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2813,7 +2705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2827,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2835,19 +2727,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
@@ -2855,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2872,7 +2767,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2881,16 +2776,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2924,15 +2819,15 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2943,10 +2838,13 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -2961,9 +2859,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -2975,12 +2873,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2992,13 +2890,33 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{00000000-0002-0000-1F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3008,16 +2926,16 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +2952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3051,7 +2969,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3060,16 +2978,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3086,7 +3004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3100,12 +3018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3113,161 +3031,113 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
       <c r="B9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12 A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A3" xr:uid="{00000000-0002-0000-2100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2100-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A9:A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A6:A7" xr:uid="{00000000-0002-0000-2100-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-2100-000003000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3277,19 +3147,19 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3306,9 +3176,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3320,126 +3190,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="b">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12 A5:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{9D2F29C9-61FC-44A3-83B7-BB20DD117273}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{DAD4766F-71FF-46B5-ABDA-159FAA670528}">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{91238BF7-DFAF-47F0-B8D8-418FBD3D925D}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3447,16 +3236,16 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3487,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3501,21 +3290,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3529,18 +3318,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-2300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3549,16 +3333,16 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3575,7 +3359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3595,7 +3379,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3604,16 +3388,16 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3630,9 +3414,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3650,7 +3434,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3659,16 +3443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3685,7 +3469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3699,15 +3483,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -3716,68 +3500,68 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3789,55 +3573,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A11 A7 A2:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9 A2:A5" xr:uid="{00000000-0002-0000-2600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{00000000-0002-0000-2600-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3846,16 +3602,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3872,7 +3628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3889,7 +3645,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3899,16 +3655,16 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3925,9 +3681,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3939,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3954,16 +3710,16 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +3736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3988,18 +3744,18 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4011,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4019,21 +3775,21 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -4042,10 +3798,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5 A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A4:A5" xr:uid="{00000000-0002-0000-2800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-2800-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4054,16 +3810,16 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4080,9 +3836,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4094,12 +3850,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4111,43 +3867,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4159,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4173,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4187,9 +3943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -4204,13 +3960,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A7:A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A7:A9" xr:uid="{00000000-0002-0000-2900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{00000000-0002-0000-2900-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-2900-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4219,16 +3975,16 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +4001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4259,32 +4015,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -4293,23 +4043,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4321,58 +4071,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A4:A6 A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A3:A5 A2" xr:uid="{00000000-0002-0000-2A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{00000000-0002-0000-2A00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4381,16 +4100,16 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4407,7 +4126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4423,40 +4142,39 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3">
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 I2:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 A2:A4" xr:uid="{00000000-0002-0000-2B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4465,16 +4183,16 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4491,7 +4209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4508,7 +4226,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4517,16 +4235,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +4278,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4569,16 +4287,16 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4595,7 +4313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4612,7 +4330,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4621,19 +4339,19 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4650,9 +4368,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4667,13 +4385,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-2F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-2F00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{00000000-0002-0000-2F00-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4683,19 +4401,19 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4712,7 +4430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4726,9 +4444,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -4743,9 +4461,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -4757,9 +4475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -4771,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4785,9 +4503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4799,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4813,9 +4531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -4830,13 +4548,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-3000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A3" xr:uid="{00000000-0002-0000-3000-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{00000000-0002-0000-3000-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4846,16 +4564,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4872,7 +4590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4886,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4900,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4917,7 +4635,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4926,16 +4644,16 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4952,9 +4670,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4969,7 +4687,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-3100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4979,16 +4697,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5005,7 +4723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5019,12 +4737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5033,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5050,7 +4768,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5059,16 +4777,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5085,7 +4803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5099,9 +4817,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5116,10 +4834,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5128,16 +4846,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5154,7 +4872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5168,9 +4886,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5185,7 +4903,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5194,16 +4912,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5220,7 +4938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5237,7 +4955,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D56464E-C719-4D03-BB1C-D9CB25CDCE07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4883C5F-BD19-4604-8A62-B99C62A3BF6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4212" yWindow="3072" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="48" activeTab="49" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -1894,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1939,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4647,7 +4647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4883C5F-BD19-4604-8A62-B99C62A3BF6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E43BD5-B4AB-470F-9C25-6CE8BDE310F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="36" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="46">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -1894,7 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3811,10 +3811,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -3869,75 +3869,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -3945,32 +3945,61 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A7:A9" xr:uid="{00000000-0002-0000-2900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A11 A2:A5" xr:uid="{00000000-0002-0000-2900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{00000000-0002-0000-2900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9" xr:uid="{00000000-0002-0000-2900-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-2900-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{00000000-0002-0000-2900-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3979,7 +4008,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E43BD5-B4AB-470F-9C25-6CE8BDE310F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA26895-E605-46FA-A55A-D1D9EBA1AD0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="36" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="46">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -2035,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2132,25 +2132,39 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{00000000-0002-0000-1700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{00000000-0002-0000-1700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3811,10 +3825,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -3869,7 +3883,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -3880,16 +3894,19 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -3897,19 +3914,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3917,7 +3931,7 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3931,24 +3945,27 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3959,42 +3976,56 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A11 A2:A5" xr:uid="{00000000-0002-0000-2900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A12 A2:A6" xr:uid="{00000000-0002-0000-2900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9" xr:uid="{00000000-0002-0000-2900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10" xr:uid="{00000000-0002-0000-2900-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{00000000-0002-0000-2900-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8" xr:uid="{00000000-0002-0000-2900-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA26895-E605-46FA-A55A-D1D9EBA1AD0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E7FFAA-75F5-4FAF-AA93-EAC70E5F5D7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="46">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -2037,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3162,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -3204,45 +3204,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{9D2F29C9-61FC-44A3-83B7-BB20DD117273}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{9D2F29C9-61FC-44A3-83B7-BB20DD117273}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{DAD4766F-71FF-46B5-ABDA-159FAA670528}">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{91238BF7-DFAF-47F0-B8D8-418FBD3D925D}">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E7FFAA-75F5-4FAF-AA93-EAC70E5F5D7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6251AD3-362F-4FEB-A9AE-1FE0BC6F5D30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="34" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -3164,7 +3164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3426,7 +3426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6251AD3-362F-4FEB-A9AE-1FE0BC6F5D30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="34" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="21150" windowHeight="12210" tabRatio="795" firstSheet="36" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -59,12 +58,12 @@
     <sheet name="E49_After_TimeCapsule_Set_Piece" sheetId="49" r:id="rId49"/>
     <sheet name="E50_TimeCapsule_Bookmark" sheetId="50" r:id="rId50"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="47">
   <si>
     <t>category</t>
     <phoneticPr fontId="3"/>
@@ -323,23 +322,26 @@
     <t>フランのボイス（未追加）</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>LockPast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -347,14 +349,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -395,8 +397,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - 輔色1" xfId="1" builtinId="31"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -412,7 +414,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,7 +456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,26 +489,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,23 +524,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -731,14 +699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
@@ -746,7 +714,7 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -777,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -791,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -808,10 +776,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -821,16 +789,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -864,7 +832,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -873,16 +841,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -899,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -919,7 +887,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -928,16 +896,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -954,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -968,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -982,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -999,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +984,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1025,16 +993,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1065,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1081,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1122,16 +1090,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1190,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1221,10 +1189,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,SpawnEnemy,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1234,19 +1202,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1277,17 +1245,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G7" t="s">
         <v>34</v>
       </c>
@@ -1295,13 +1263,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{5C5065CA-F4BA-4E90-B696-70F325F2EE6E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7" xr:uid="{0CF03394-E72B-48EA-8173-05275D39D29C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1311,16 +1279,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1351,12 +1319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G6" t="s">
         <v>19</v>
       </c>
@@ -1364,13 +1332,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0F00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1379,16 +1347,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1425,7 +1393,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1434,16 +1402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1448,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1489,16 +1457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1532,7 +1500,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1541,16 +1509,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1612,7 +1580,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1621,16 +1589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1661,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1695,7 +1663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1709,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1726,7 +1694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1740,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1771,13 +1739,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5 A8 A9" xr:uid="{00000000-0002-0000-1300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5 A8 A9">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-1300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{00000000-0002-0000-1300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1787,16 +1755,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1830,7 +1798,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1839,16 +1807,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1882,7 +1850,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1891,19 +1859,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1934,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1948,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1965,7 +1933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1979,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1993,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2007,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2024,7 +1992,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{00000000-0002-0000-1600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2034,16 +2002,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2102,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2144,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2164,7 +2132,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{00000000-0002-0000-1700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2174,16 +2142,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2200,7 +2168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2214,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2231,10 +2199,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-1800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2243,16 +2211,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2286,7 +2254,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{B08725A8-DB97-4F2A-B98E-FEDBDEEE4217}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2295,16 +2263,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2341,7 +2309,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2350,16 +2318,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +2344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2390,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2421,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2438,7 +2406,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2447,16 +2415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2487,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2518,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2535,7 +2503,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2544,16 +2512,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2570,7 +2538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2587,7 +2555,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2596,16 +2564,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2636,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2650,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2667,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2652,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2693,16 +2661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2747,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2764,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2781,7 +2749,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2790,16 +2758,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2836,7 +2804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2856,7 +2824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2873,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2890,7 +2858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2907,7 +2875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2930,7 +2898,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{00000000-0002-0000-1F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2940,16 +2908,16 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2966,7 +2934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2983,7 +2951,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2992,16 +2960,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3032,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3049,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3066,7 +3034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3083,7 +3051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3097,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3111,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3125,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3142,16 +3110,16 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A3" xr:uid="{00000000-0002-0000-2100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A6:A7" xr:uid="{00000000-0002-0000-2100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A6:A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-2100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3161,19 +3129,19 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3207,7 +3175,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{9D2F29C9-61FC-44A3-83B7-BB20DD117273}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3216,16 +3184,16 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3242,7 +3210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3256,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3270,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3284,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3304,7 +3272,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-2300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3313,16 +3281,16 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3359,7 +3327,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3368,16 +3336,16 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3394,7 +3362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3414,7 +3382,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3423,16 +3391,16 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3449,7 +3417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3463,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3483,7 +3451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3497,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3511,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3525,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3539,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3553,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3570,10 +3538,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9 A2:A5" xr:uid="{00000000-0002-0000-2600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9 A2:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{00000000-0002-0000-2600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3582,16 +3550,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3608,7 +3576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3625,7 +3593,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3635,16 +3603,16 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3661,7 +3629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -3681,7 +3649,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3690,16 +3658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3716,7 +3684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3733,7 +3701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3747,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3761,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3778,10 +3746,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A4:A5" xr:uid="{00000000-0002-0000-2800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A4:A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-2800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3790,16 +3758,16 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +3784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3830,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3847,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3864,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3878,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3892,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3909,7 +3877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3926,7 +3894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3940,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3954,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3968,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3985,13 +3953,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A12 A2:A6" xr:uid="{00000000-0002-0000-2900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A12 A2:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10" xr:uid="{00000000-0002-0000-2900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8" xr:uid="{00000000-0002-0000-2900-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4001,16 +3969,16 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4027,7 +3995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4041,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4055,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4069,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4083,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4097,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4114,10 +4082,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A3:A5 A2" xr:uid="{00000000-0002-0000-2A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A3:A5 A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{00000000-0002-0000-2A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4126,16 +4094,16 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4152,7 +4120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4169,7 +4137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4183,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4200,7 +4168,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 A2:A4" xr:uid="{00000000-0002-0000-2B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4209,16 +4177,16 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4235,7 +4203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4252,7 +4220,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4261,16 +4229,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4287,7 +4255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4304,7 +4272,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4313,16 +4281,16 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4339,7 +4307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4350,14 +4318,28 @@
         <v>0</v>
       </c>
       <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2E00-000000000000}">
-      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+      <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,LockPast"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4365,19 +4347,19 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +4376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4411,13 +4393,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-2F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-2F00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{00000000-0002-0000-2F00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4427,19 +4409,19 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4456,7 +4438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4470,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4487,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4501,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4515,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4529,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4543,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4557,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4574,13 +4556,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-3000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A3" xr:uid="{00000000-0002-0000-3000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{00000000-0002-0000-3000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4590,16 +4572,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4616,7 +4598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4630,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4644,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4661,7 +4643,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4670,16 +4652,16 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4713,7 +4695,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-3100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4723,16 +4705,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4749,7 +4731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4763,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4777,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4794,7 +4776,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4803,16 +4785,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4829,7 +4811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4843,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4860,10 +4842,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4872,16 +4854,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4898,7 +4880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4912,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4929,7 +4911,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4938,16 +4920,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +4946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4981,7 +4963,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/CatEarsShota/Assets/Excel/EventExcel.xlsx
+++ b/CatEarsShota/Assets/Excel/EventExcel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F65313C-9C4B-4207-AE30-2ECA05A127F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="21150" windowHeight="12210" tabRatio="795" firstSheet="36" activeTab="46"/>
+    <workbookView xWindow="0" yWindow="144" windowWidth="21144" windowHeight="12216" tabRatio="795" firstSheet="37" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E01_Map1_to_map2" sheetId="1" r:id="rId1"/>
@@ -329,19 +330,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -349,14 +350,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -397,8 +398,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - 輔色1" xfId="1" builtinId="31"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -414,7 +415,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,7 +457,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,9 +490,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,6 +542,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -699,14 +734,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
@@ -714,7 +749,7 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -745,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -759,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -776,10 +811,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -789,16 +824,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,7 +850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -832,7 +867,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -841,16 +876,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -867,7 +902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -887,7 +922,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -896,16 +931,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -922,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -936,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -950,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -967,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -984,7 +1019,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -993,16 +1028,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1033,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1081,7 +1116,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1090,16 +1125,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1158,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1189,10 +1224,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,SpawnEnemy,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1202,19 +1237,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1245,17 +1280,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="G5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="G6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="G7" t="s">
         <v>34</v>
       </c>
@@ -1263,13 +1298,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10 A2:A4" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7" xr:uid="{00000000-0002-0000-0E00-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1279,16 +1314,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1319,12 +1354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="G3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="G6" t="s">
         <v>19</v>
       </c>
@@ -1332,13 +1367,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5:A6" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0F00-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1347,16 +1382,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1428,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1402,16 +1437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +1483,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1457,16 +1492,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1500,7 +1535,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1509,16 +1544,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1563,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1615,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1589,16 +1624,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1629,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1646,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1663,7 +1698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1677,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1694,7 +1729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1708,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1739,13 +1774,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5 A8 A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A5 A8 A9" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-1300-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{00000000-0002-0000-1300-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1755,16 +1790,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +1833,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1807,16 +1842,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1850,7 +1885,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1859,19 +1894,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1916,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1933,7 +1968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1947,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1961,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1975,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +2027,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{00000000-0002-0000-1600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2002,16 +2037,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2028,7 +2063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2042,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2070,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2084,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2098,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2112,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2132,7 +2167,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{00000000-0002-0000-1700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2142,16 +2177,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2182,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2199,10 +2234,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-1800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1800-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2211,16 +2246,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2254,7 +2289,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2263,16 +2298,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2309,7 +2344,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2318,16 +2353,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2358,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2372,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2389,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2406,7 +2441,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2415,16 +2450,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2441,7 +2476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2455,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2469,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2486,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +2538,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2512,16 +2547,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2538,7 +2573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2555,7 +2590,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2564,16 +2599,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2604,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2618,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2635,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2652,7 +2687,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2661,16 +2696,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +2722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2701,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2715,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2732,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2749,7 +2784,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-1E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2758,16 +2793,16 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2804,7 +2839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2824,7 +2859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2841,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2858,7 +2893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2875,7 +2910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2898,7 +2933,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{00000000-0002-0000-1F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2908,16 +2943,16 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2934,7 +2969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2951,7 +2986,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2960,16 +2995,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +3021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3017,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3034,7 +3069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3051,7 +3086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3065,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3079,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3093,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3110,16 +3145,16 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A3" xr:uid="{00000000-0002-0000-2100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-2100-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A6:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A6:A7" xr:uid="{00000000-0002-0000-2100-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-2100-000003000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3129,19 +3164,19 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3158,7 +3193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3175,7 +3210,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2200-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3184,16 +3219,16 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3224,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3238,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3252,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3272,7 +3307,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-2300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3281,16 +3316,16 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3327,7 +3362,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3336,16 +3371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3362,7 +3397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3382,7 +3417,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3391,16 +3426,16 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3417,7 +3452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3431,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3451,7 +3486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3465,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3479,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3493,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3507,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3521,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3538,10 +3573,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9 A2:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9 A2:A5" xr:uid="{00000000-0002-0000-2600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{00000000-0002-0000-2600-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3550,16 +3585,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3576,7 +3611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3593,7 +3628,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3603,16 +3638,16 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3629,7 +3664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -3649,7 +3684,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3658,16 +3693,16 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3684,7 +3719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3701,7 +3736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3715,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3729,9 +3764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3746,10 +3781,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A4:A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A4:A5" xr:uid="{00000000-0002-0000-2800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-2800-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3758,16 +3793,16 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3784,7 +3819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3798,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3815,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3832,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3846,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3860,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3877,7 +3912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3894,7 +3929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3908,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3922,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3936,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3953,13 +3988,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A12 A2:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A12 A2:A6" xr:uid="{00000000-0002-0000-2900-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A10" xr:uid="{00000000-0002-0000-2900-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8" xr:uid="{00000000-0002-0000-2900-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3969,16 +4004,16 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3995,7 +4030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4009,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4023,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4037,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4051,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4065,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4082,10 +4117,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A3:A5 A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A3:A5 A2" xr:uid="{00000000-0002-0000-2A00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6" xr:uid="{00000000-0002-0000-2A00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4094,16 +4129,16 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4120,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4137,7 +4172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4151,9 +4186,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4168,7 +4203,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 A2:A4" xr:uid="{00000000-0002-0000-2B00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4177,16 +4212,16 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4220,7 +4255,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2C00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4229,16 +4264,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4255,7 +4290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4272,7 +4307,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-2D00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4281,16 +4316,16 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4307,7 +4342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4321,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -4338,7 +4373,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-2E00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,LockPast"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4347,19 +4382,19 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4376,7 +4411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4393,13 +4428,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-2F00-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{00000000-0002-0000-2F00-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A7" xr:uid="{00000000-0002-0000-2F00-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4409,19 +4444,19 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4438,7 +4473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4452,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4469,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4483,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4497,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4511,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4525,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4539,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4556,13 +4591,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-3000-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A9 A2:A3" xr:uid="{00000000-0002-0000-3000-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{00000000-0002-0000-3000-000002000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4572,16 +4607,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4598,7 +4633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4612,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4626,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4643,7 +4678,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4652,16 +4687,16 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4678,7 +4713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4695,7 +4730,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-3100-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetOrb,TimeCapsule"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4705,16 +4740,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4731,7 +4766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4745,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4759,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4776,7 +4811,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4785,16 +4820,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4811,7 +4846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4825,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4842,10 +4877,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4854,16 +4889,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4880,7 +4915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4894,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4911,7 +4946,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE,ChangeSprite,StandFlag,SetMushRoomNoMoto,SetPiece,SetOrb,GlowMushroom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4920,16 +4955,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4946,7 +4981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4963,7 +4998,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Movie,FadeIn,FadeOut,CameraZoom,Bubble,ChangeTime,Warp,DropItem,PickupItem,Tutorial,Minigame1,Minigame2,ChangeColor,TextWindow,BGM,SE"</formula1>
     </dataValidation>
   </dataValidations>
